--- a/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 1.xlsx
+++ b/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 1.xlsx
@@ -385,16 +385,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>187.7613126</v>
+        <v>61.51018</v>
       </c>
       <c r="B2">
-        <v>101.389479849332</v>
+        <v>29.34748569720411</v>
       </c>
       <c r="C2">
-        <v>93.07488000000036</v>
+        <v>59.91800000000002</v>
       </c>
       <c r="D2">
-        <v>67.21945800000091</v>
+        <v>42.35580000000002</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -402,16 +402,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>150.851477</v>
+        <v>54.68142000000002</v>
       </c>
       <c r="B3">
-        <v>83.34888629539006</v>
+        <v>24.568669743468</v>
       </c>
       <c r="C3">
-        <v>90.76952000000001</v>
+        <v>62.67199999999998</v>
       </c>
       <c r="D3">
-        <v>63.8674240000009</v>
+        <v>42.39960000000001</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>125.9817172</v>
+        <v>52.35901999999999</v>
       </c>
       <c r="B4">
-        <v>72.31270764253824</v>
+        <v>24.60414817585848</v>
       </c>
       <c r="C4">
-        <v>88.06314000000003</v>
+        <v>62.188</v>
       </c>
       <c r="D4">
-        <v>60.55678399999942</v>
+        <v>42.39380000000001</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -436,16 +436,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>123.6681006</v>
+        <v>53.07844</v>
       </c>
       <c r="B5">
-        <v>72.03186803982311</v>
+        <v>21.76505864100531</v>
       </c>
       <c r="C5">
-        <v>87.81324000000002</v>
+        <v>61.84800000000001</v>
       </c>
       <c r="D5">
-        <v>60.4575399999996</v>
+        <v>42.4066</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -453,16 +453,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>122.004132</v>
+        <v>46.7045</v>
       </c>
       <c r="B6">
-        <v>69.39342330821121</v>
+        <v>19.09389253688205</v>
       </c>
       <c r="C6">
-        <v>87.63385999999987</v>
+        <v>62.084</v>
       </c>
       <c r="D6">
-        <v>59.53993799999861</v>
+        <v>42.41340000000003</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -470,16 +470,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>135.8678854</v>
+        <v>59.75422</v>
       </c>
       <c r="B7">
-        <v>70.04506065765862</v>
+        <v>29.3876820299186</v>
       </c>
       <c r="C7">
-        <v>88.61040000000018</v>
+        <v>60.084</v>
       </c>
       <c r="D7">
-        <v>57.3809180000021</v>
+        <v>42.41820000000001</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>128.8620158</v>
+        <v>59.59976</v>
       </c>
       <c r="B8">
-        <v>61.83271548488193</v>
+        <v>26.76388604785187</v>
       </c>
       <c r="C8">
-        <v>87.57301999999994</v>
+        <v>61.87800000000001</v>
       </c>
       <c r="D8">
-        <v>56.67013200000225</v>
+        <v>42.4202</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>128.6451352</v>
+        <v>51.52756000000002</v>
       </c>
       <c r="B9">
-        <v>59.49058994817677</v>
+        <v>26.09722979947106</v>
       </c>
       <c r="C9">
-        <v>84.29206000000001</v>
+        <v>64.67199999999997</v>
       </c>
       <c r="D9">
-        <v>54.59616799999973</v>
+        <v>42.368</v>
       </c>
       <c r="E9">
         <v>256</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>126.0807034</v>
+        <v>51.45718000000001</v>
       </c>
       <c r="B10">
-        <v>59.1156610312785</v>
+        <v>21.83666977695088</v>
       </c>
       <c r="C10">
-        <v>81.98794000000001</v>
+        <v>61.798</v>
       </c>
       <c r="D10">
-        <v>53.41900599999948</v>
+        <v>42.42400000000001</v>
       </c>
       <c r="E10">
         <v>512</v>
@@ -538,16 +538,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>125.6072518</v>
+        <v>53.41639999999998</v>
       </c>
       <c r="B11">
-        <v>59.16478692382481</v>
+        <v>21.95489313752176</v>
       </c>
       <c r="C11">
-        <v>79.67522000000002</v>
+        <v>61.482</v>
       </c>
       <c r="D11">
-        <v>52.51252400000143</v>
+        <v>42.42140000000001</v>
       </c>
       <c r="E11">
         <v>1024</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>132.316798</v>
+        <v>57.27731999999999</v>
       </c>
       <c r="B12">
-        <v>60.96867762373729</v>
+        <v>25.13636438663316</v>
       </c>
       <c r="C12">
-        <v>78.41597999999998</v>
+        <v>63.11199999999999</v>
       </c>
       <c r="D12">
-        <v>52.19514000000134</v>
+        <v>42.39520000000002</v>
       </c>
       <c r="E12">
         <v>2048</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>31.1130712</v>
+        <v>51.26967999999999</v>
       </c>
       <c r="B13">
-        <v>18.53234398569518</v>
+        <v>21.75462877131209</v>
       </c>
       <c r="C13">
-        <v>37.21578000000009</v>
+        <v>65.21199999999999</v>
       </c>
       <c r="D13">
-        <v>34.40749200000266</v>
+        <v>42.39920000000001</v>
       </c>
       <c r="E13">
         <v>4096</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>28.685365</v>
+        <v>65.0504</v>
       </c>
       <c r="B14">
-        <v>10.02112276193516</v>
+        <v>30.86361121061501</v>
       </c>
       <c r="C14">
-        <v>30.56102000000013</v>
+        <v>63.276</v>
       </c>
       <c r="D14">
-        <v>31.79062599999782</v>
+        <v>42.46220000000001</v>
       </c>
       <c r="E14">
         <v>8192</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>29.85990259999999</v>
+        <v>69.34086000000001</v>
       </c>
       <c r="B15">
-        <v>9.495582321980745</v>
+        <v>31.55025002627396</v>
       </c>
       <c r="C15">
-        <v>27.03717999999999</v>
+        <v>65.05199999999999</v>
       </c>
       <c r="D15">
-        <v>30.08564199999998</v>
+        <v>42.59399999999997</v>
       </c>
       <c r="E15">
         <v>16384</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>34.4183604</v>
+        <v>85.69593999999998</v>
       </c>
       <c r="B16">
-        <v>9.414116317218101</v>
+        <v>43.96330608878727</v>
       </c>
       <c r="C16">
-        <v>24.64140000000005</v>
+        <v>62.59400000000001</v>
       </c>
       <c r="D16">
-        <v>28.44025800000037</v>
+        <v>42.8366</v>
       </c>
       <c r="E16">
         <v>32768</v>
